--- a/tietokanta/character_creation/excel/backgrounds.xlsx
+++ b/tietokanta/character_creation/excel/backgrounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{362E19F8-436F-410E-BE5C-1E2B71EA05A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30D87D4-11FE-4A08-B0F0-9A582C305730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
   </connection>
   <connection id="2" xr16:uid="{DF837F96-E8DE-4CF6-B0EE-E60B4380A762}" name="background_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\background_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{C8DBB8E8-4CC3-4B5C-9D02-EE6D57E1ECF8}" name="background_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\schemas\background_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -500,19 +503,19 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="backgrounds">
+      <xsd:element nillable="true" name="Backgrounds">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Background" form="unqualified">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="background" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Boost" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Skill" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Feat" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bckgrName" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="boost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skill" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="feat" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="description" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -521,30 +524,30 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="backgrounds-määritys" RootElement="backgrounds" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="Backgrounds-määritys" RootElement="Backgrounds" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E30F2932-A194-4F7C-B71A-64DC09364D3E}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" tableType="xml" totalsRowShown="0" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E30F2932-A194-4F7C-B71A-64DC09364D3E}" name="Taulukko1" displayName="Taulukko1" ref="A1:E40" tableType="xml" totalsRowShown="0" connectionId="3">
   <autoFilter ref="A1:E40" xr:uid="{BCFF37DB-8AB3-4723-BF5D-C6527D347D01}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E41CD033-4B2C-4E08-B87E-36D9A5ADF016}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Name" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{E41CD033-4B2C-4E08-B87E-36D9A5ADF016}" uniqueName="bckgrName" name="Name">
+      <xmlColumnPr mapId="3" xpath="/Backgrounds/background/bckgrName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E1A47D69-5119-4858-9DD9-300C7ABB4963}" uniqueName="Boost" name="Boost">
-      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Boost" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{E1A47D69-5119-4858-9DD9-300C7ABB4963}" uniqueName="boost" name="Boost">
+      <xmlColumnPr mapId="3" xpath="/Backgrounds/background/boost" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{24820BB7-3149-4A89-AC14-B98AD9AD33D0}" uniqueName="Skill" name="Skill">
-      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Skill" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{24820BB7-3149-4A89-AC14-B98AD9AD33D0}" uniqueName="skill" name="Skill">
+      <xmlColumnPr mapId="3" xpath="/Backgrounds/background/skill" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{48CE2AD8-5BA3-4094-9C08-1436465BB957}" uniqueName="Feat" name="Feat">
-      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Feat" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{48CE2AD8-5BA3-4094-9C08-1436465BB957}" uniqueName="feat" name="Feat">
+      <xmlColumnPr mapId="3" xpath="/Backgrounds/background/feat" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{37E81CB4-175A-4FA4-9BF5-BA7118B4776A}" uniqueName="Description" name="Description">
-      <xmlColumnPr mapId="2" xpath="/backgrounds/Background/Description" xmlDataType="string"/>
+    <tableColumn id="5" xr3:uid="{37E81CB4-175A-4FA4-9BF5-BA7118B4776A}" uniqueName="description" name="Description">
+      <xmlColumnPr mapId="3" xpath="/Backgrounds/background/description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -817,7 +820,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
